--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songhansol/Desktop/code/chatbotProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB1B6A-0174-0D4A-9BFD-5EA9F48C3B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97422CF5-3556-9643-998A-FF76621688C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16940" xr2:uid="{99807DF0-C959-9C43-ABD0-1F6DAA8398F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>menu</t>
   </si>
@@ -98,18 +98,6 @@
     <t>Venti, 벤티, 벤티사이즈, Venti</t>
   </si>
   <si>
-    <t>마일드로스트</t>
-  </si>
-  <si>
-    <t>마일드로스트, 마일드</t>
-  </si>
-  <si>
-    <t>다크로스트</t>
-  </si>
-  <si>
-    <t>다크로스트, 다크</t>
-  </si>
-  <si>
     <t>바닐라시럽</t>
   </si>
   <si>
@@ -164,15 +152,1282 @@
     <t>많이, extra</t>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체어</t>
+    <t>menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인카페라떼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인카페라떼, 디카페인카페라테</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>variations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페인농도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 45%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 35%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인농도 15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%, 이십퍼, 이십프로, 카페인 20%, 카페인농도 20%, 카페인 이십퍼, 카페인농도 이십프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15%, 십오퍼, 십오프로, 카페인 15%, 카페인농도 15%, 카페인 십오퍼, 카페인농도 십오프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%, 십퍼, 십프로, 카페인 10%, 카페인농도 10%, 카페인 십퍼, 카페인농도 십프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%, 오퍼, 오프로, 카페인 5% 카페인농도 5%, 카페인 오퍼, 카페인농도 오프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%, 이십오퍼, 이십오프로, 카페인 25%, 카페인농도 25%, 카페인 이십오퍼, 카페인농도 이십오프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%, 삼십퍼, 삼십프로, 카페인 30%, 카페인농도 30%, 카페인 삼십퍼, 카페인농도 삼십프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%, 사십퍼, 사십프로, 카페인 40%, 카페인농도 40%, 카페인 사십퍼, 카페인농도 사십프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45%, 사십오퍼, 사십오프로, 카페인 45%, 카페인농도 45% 카페인농도 사십오퍼, 카페인농도 사십오프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35%, 삼십오퍼, 삼십오프로, ,카페인 35%, 카페인농도 35%, 카페인 삼십오퍼, 카페인농도 삼십오프로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>powder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라파우더</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더바닐라</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜파우더</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더카라멜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카파우더</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더모카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더초코</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다섯잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다섯개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아홉잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아홉개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여덟잔, 여덜잔, 여덟개, 여덜개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칠잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일곱잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일곱개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>육잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여섯잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여섯개</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이즐넛드리즐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이즐넛드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐헤이즐넛</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caffeinLevel</t>
+  </si>
+  <si>
+    <t>whippingCream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반우유</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유저지방</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유, 일반우유, 우유일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유무지방</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유오트밀</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠키</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오레오</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜큐브</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라비카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예니체프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +1435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +1464,31 @@
       <sz val="10.5"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +1530,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,29 +1881,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F703C-5D04-6E4E-847A-580D34217D7E}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,8 +1918,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,185 +1932,599 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songhansol/Desktop/code/chatbotProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97422CF5-3556-9643-998A-FF76621688C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27885AB-3F24-EB48-A205-A886DEC508C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16940" xr2:uid="{99807DF0-C959-9C43-ABD0-1F6DAA8398F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>menu</t>
   </si>
@@ -62,9 +62,6 @@
     <t>아메리카노</t>
   </si>
   <si>
-    <t>아메리카노, 아멜카노</t>
-  </si>
-  <si>
     <t>카페라떼</t>
   </si>
   <si>
@@ -1428,6 +1425,56 @@
   </si>
   <si>
     <t>예니체프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페모카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아메리카노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아멜카노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아아</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1881,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F703C-5D04-6E4E-847A-580D34217D7E}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1896,16 +1943,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1915,126 +1962,123 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" customFormat="1">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2048,71 +2092,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" customFormat="1">
       <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -2120,13 +2164,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2134,13 +2178,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -2151,10 +2195,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -2165,10 +2209,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -2179,10 +2223,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -2190,22 +2234,24 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>57</v>
@@ -2214,10 +2260,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>56</v>
@@ -2226,7 +2272,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>53</v>
@@ -2238,73 +2284,73 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -2313,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -2325,30 +2371,31 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>72</v>
@@ -2356,32 +2403,32 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>80</v>
@@ -2389,21 +2436,21 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>88</v>
@@ -2411,10 +2458,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>87</v>
@@ -2422,10 +2469,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>86</v>
@@ -2433,93 +2480,104 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songhansol/Desktop/code/chatbotProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2771F-08B1-7E46-BA8E-482F74E734A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1795A7-4051-284D-A4B1-417A5A91667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{99807DF0-C959-9C43-ABD0-1F6DAA8398F9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{99807DF0-C959-9C43-ABD0-1F6DAA8398F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="232">
   <si>
     <t>menu</t>
   </si>
@@ -841,6 +841,2189 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t>바닐라시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라시럽많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽바닐라많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜시럽보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽카라멜보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽카라멜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜시럽많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽카라멜많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카시럽보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽모카보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽모카</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라파우더</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더바닐라, 바닐라 드리즐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜파우더</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더카라멜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카파우더</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모카파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더모카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더초코</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이즐넛드리즐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이즐넛드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐헤이즐넛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페인농도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다섯잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다섯개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>육잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여섯잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여섯개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칠잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일곱잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일곱개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아홉잔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아홉개</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유저지방적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유저지방보통, 저지방우유</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저지방우유많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유저지방많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유 적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유무지방 적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무지방우유 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유 보통 우유무지방 보통 무지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유무지방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지방우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유 적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유오트밀 적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>귀리우유 적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유, 귀리우유, 오트밀우유 적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유오트밀 적게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오트밀우유 많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">우유오트밀많이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>귀리우유 많이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠키</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오레오</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카라멜큐브</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼줘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드리즐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼줘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휘핑크림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼줘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토핑취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼줘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>바닐라시럽보통</t>
     </r>
     <r>
@@ -894,25 +3077,14 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>시럽바닐라</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바닐라시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>시럽바닐라,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -923,1001 +3095,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바닐라시럽많이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽바닐라많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜시럽보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽카라멜보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽카라멜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜시럽많이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽카라멜많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모카시럽보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽모카보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모카시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시럽모카</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바닐라파우더</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바닐라파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더바닐라, 바닐라 드리즐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜파우더</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더카라멜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모카파우더</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모카파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더모카</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초코파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더초코</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤이즐넛드리즐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤이즐넛드리즐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐헤이즐넛</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카페인농도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다섯잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다섯개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>육잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여섯잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여섯개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>칠잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일곱잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일곱개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아홉잔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아홉개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림</t>
+      <t>바닐라</t>
     </r>
     <r>
       <rPr>
@@ -1934,1151 +3112,16 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보통</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저지방우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저지방우유적게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유저지방적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저지방우유보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유저지방보통, 저지방우유</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저지방우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저지방우유많이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유저지방많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무지방우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무지방우유 적게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유무지방 적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">무지방우유 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보통</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무지방우유 보통 우유무지방 보통 무지방우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무지방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유무지방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무지방우유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오트밀우유 적게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유오트밀 적게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>귀리우유 적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오트밀우유</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오트밀우유, 귀리우유, 오트밀우유 적게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우유오트밀 적게</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오트밀우유 많이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">우유오트밀많이 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>귀리우유 많이</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쿠키</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오레오</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카라멜큐브</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파우더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼줘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드리즐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼줘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휘핑크림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼줘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토핑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토핑취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토핑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토핑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토핑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빼줘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useStock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3195,7 +3238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3242,9 +3285,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3593,8 +3633,8 @@
   <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3618,7 +3658,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>169</v>
@@ -3637,7 +3677,9 @@
       <c r="C2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E2" s="9">
         <v>101</v>
       </c>
@@ -3655,7 +3697,9 @@
       <c r="C3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E3" s="9">
         <v>201</v>
       </c>
@@ -3673,7 +3717,9 @@
       <c r="C4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E4" s="9">
         <v>301</v>
       </c>
@@ -3691,7 +3737,9 @@
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E5" s="9">
         <v>401</v>
       </c>
@@ -3709,7 +3757,9 @@
       <c r="C6" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E6" s="9">
         <v>102</v>
       </c>
@@ -3727,7 +3777,9 @@
       <c r="C7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E7" s="9">
         <v>202</v>
       </c>
@@ -3745,7 +3797,9 @@
       <c r="C8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E8" s="9">
         <v>203</v>
       </c>
@@ -3763,7 +3817,9 @@
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E9" s="9">
         <v>204</v>
       </c>
@@ -3781,7 +3837,9 @@
       <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E10" s="9">
         <v>103</v>
       </c>
@@ -3799,7 +3857,9 @@
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E11" s="9">
         <v>203</v>
       </c>
@@ -3817,7 +3877,9 @@
       <c r="C12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E12" s="9">
         <v>303</v>
       </c>
@@ -3835,7 +3897,9 @@
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E13" s="9">
         <v>403</v>
       </c>
@@ -3853,7 +3917,9 @@
       <c r="C14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E14" s="9">
         <v>104</v>
       </c>
@@ -3871,7 +3937,9 @@
       <c r="C15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E15" s="9">
         <v>204</v>
       </c>
@@ -3889,7 +3957,9 @@
       <c r="C16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E16" s="9">
         <v>304</v>
       </c>
@@ -3907,7 +3977,9 @@
       <c r="C17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E17" s="9">
         <v>404</v>
       </c>
@@ -3925,7 +3997,9 @@
       <c r="C18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E18" s="9">
         <v>112</v>
       </c>
@@ -3943,7 +4017,9 @@
       <c r="C19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E19" s="9">
         <v>113</v>
       </c>
@@ -3961,7 +4037,9 @@
       <c r="C20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E20" s="9">
         <v>114</v>
       </c>
@@ -3979,7 +4057,9 @@
       <c r="C21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E21" s="9">
         <v>214</v>
       </c>
@@ -3997,7 +4077,9 @@
       <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E22" s="9">
         <v>314</v>
       </c>
@@ -4015,7 +4097,9 @@
       <c r="C23" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E23" s="9">
         <v>414</v>
       </c>
@@ -4033,7 +4117,9 @@
       <c r="C24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E24" s="9">
         <v>501</v>
       </c>
@@ -4051,7 +4137,9 @@
       <c r="C25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E25" s="9">
         <v>502</v>
       </c>
@@ -4069,7 +4157,9 @@
       <c r="C26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E26" s="9">
         <v>503</v>
       </c>
@@ -4087,7 +4177,9 @@
       <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E27" s="9">
         <v>504</v>
       </c>
@@ -4105,7 +4197,9 @@
       <c r="C28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E28" s="9">
         <v>505</v>
       </c>
@@ -4123,7 +4217,9 @@
       <c r="C29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E29" s="9">
         <v>506</v>
       </c>
@@ -4141,7 +4237,9 @@
       <c r="C30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" s="9">
         <v>507</v>
       </c>
@@ -4159,7 +4257,9 @@
       <c r="C31" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" s="9">
         <v>508</v>
       </c>
@@ -4177,7 +4277,9 @@
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
@@ -4195,7 +4297,9 @@
       <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
@@ -4213,7 +4317,9 @@
       <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
@@ -4231,7 +4337,9 @@
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
@@ -4249,7 +4357,9 @@
       <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E36" s="9">
         <v>3</v>
       </c>
@@ -4267,7 +4377,9 @@
       <c r="C37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E37" s="9">
         <v>1</v>
       </c>
@@ -4285,7 +4397,9 @@
       <c r="C38" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E38" s="9">
         <v>2</v>
       </c>
@@ -4303,7 +4417,9 @@
       <c r="C39" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E39" s="9">
         <v>1</v>
       </c>
@@ -4319,9 +4435,11 @@
         <v>116</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E40" s="9">
         <v>2</v>
       </c>
@@ -4334,12 +4452,14 @@
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E41" s="9">
         <v>3</v>
       </c>
@@ -4357,7 +4477,9 @@
       <c r="C42" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
@@ -4373,9 +4495,11 @@
         <v>119</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E43" s="9">
         <v>2</v>
       </c>
@@ -4391,9 +4515,11 @@
         <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E44" s="9">
         <v>3</v>
       </c>
@@ -4411,7 +4537,9 @@
       <c r="C45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E45" s="9">
         <v>1</v>
       </c>
@@ -4427,9 +4555,11 @@
         <v>123</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E46" s="9">
         <v>2</v>
       </c>
@@ -4447,7 +4577,9 @@
       <c r="C47" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E47" s="9">
         <v>3</v>
       </c>
@@ -4460,12 +4592,14 @@
         <v>42</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
@@ -4478,12 +4612,14 @@
         <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E49" s="9">
         <v>2</v>
       </c>
@@ -4496,12 +4632,14 @@
         <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="9"/>
+      <c r="D50" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E50" s="9">
         <v>3</v>
       </c>
@@ -4519,7 +4657,9 @@
       <c r="C51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E51" s="9">
         <v>1</v>
       </c>
@@ -4537,7 +4677,9 @@
       <c r="C52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="9"/>
+      <c r="D52" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
@@ -4550,12 +4692,14 @@
         <v>5</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E53" s="9">
         <v>3</v>
       </c>
@@ -4573,7 +4717,9 @@
       <c r="C54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="b">
         <v>1</v>
@@ -4584,12 +4730,14 @@
         <v>50</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E55" s="9" t="s">
         <v>130</v>
       </c>
@@ -4607,7 +4755,9 @@
       <c r="C56" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E56" s="9" t="s">
         <v>131</v>
       </c>
@@ -4625,7 +4775,9 @@
       <c r="C57" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E57" s="9" t="s">
         <v>132</v>
       </c>
@@ -4643,7 +4795,9 @@
       <c r="C58" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E58" s="9" t="s">
         <v>133</v>
       </c>
@@ -4661,7 +4815,9 @@
       <c r="C59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E59" s="9" t="s">
         <v>134</v>
       </c>
@@ -4679,7 +4835,9 @@
       <c r="C60" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E60" s="9" t="s">
         <v>135</v>
       </c>
@@ -4697,7 +4855,9 @@
       <c r="C61" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E61" s="9" t="s">
         <v>136</v>
       </c>
@@ -4715,7 +4875,9 @@
       <c r="C62" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E62" s="9" t="s">
         <v>138</v>
       </c>
@@ -4733,7 +4895,9 @@
       <c r="C63" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E63" s="9" t="s">
         <v>137</v>
       </c>
@@ -4751,7 +4915,9 @@
       <c r="C64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E64" s="9" t="s">
         <v>139</v>
       </c>
@@ -4769,7 +4935,9 @@
       <c r="C65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E65" s="9" t="s">
         <v>140</v>
       </c>
@@ -4787,7 +4955,9 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E66" s="9" t="s">
         <v>141</v>
       </c>
@@ -4800,12 +4970,14 @@
         <v>43</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E67" s="9" t="s">
         <v>139</v>
       </c>
@@ -4818,12 +4990,14 @@
         <v>43</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E68" s="9" t="s">
         <v>140</v>
       </c>
@@ -4839,9 +5013,11 @@
         <v>44</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E69" s="9" t="s">
         <v>141</v>
       </c>
@@ -4857,9 +5033,11 @@
         <v>45</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E70" s="9" t="s">
         <v>142</v>
       </c>
@@ -4875,9 +5053,11 @@
         <v>46</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E71" s="9" t="s">
         <v>143</v>
       </c>
@@ -4893,9 +5073,11 @@
         <v>47</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E72" s="9" t="s">
         <v>144</v>
       </c>
@@ -4911,9 +5093,11 @@
         <v>48</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E73" s="9" t="s">
         <v>145</v>
       </c>
@@ -4929,9 +5113,11 @@
         <v>49</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E74" s="9" t="s">
         <v>146</v>
       </c>
@@ -4944,12 +5130,14 @@
         <v>43</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E75" s="9" t="s">
         <v>147</v>
       </c>
@@ -4962,12 +5150,14 @@
         <v>161</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="9"/>
+      <c r="D76" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E76" s="9" t="s">
         <v>139</v>
       </c>
@@ -4985,7 +5175,9 @@
       <c r="C77" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E77" s="9" t="s">
         <v>140</v>
       </c>
@@ -5003,7 +5195,9 @@
       <c r="C78" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E78" s="9" t="s">
         <v>141</v>
       </c>
@@ -5021,8 +5215,10 @@
       <c r="C79" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17" t="s">
+      <c r="D79" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="9" t="b">
@@ -5033,14 +5229,16 @@
       <c r="A80" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>201</v>
+      <c r="B80" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17" t="s">
+      <c r="D80" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F80" s="9" t="b">
@@ -5051,14 +5249,16 @@
       <c r="A81" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>202</v>
+      <c r="B81" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17" t="s">
+      <c r="D81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="9" t="b">
@@ -5069,14 +5269,16 @@
       <c r="A82" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17" t="s">
+      <c r="D82" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F82" s="9" t="b">
@@ -5090,11 +5292,13 @@
       <c r="B83" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="17" t="s">
+      <c r="C83" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F83" s="9" t="b">
@@ -5105,14 +5309,16 @@
       <c r="A84" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="17" t="s">
+      <c r="D84" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F84" s="9" t="b">
@@ -5123,14 +5329,16 @@
       <c r="A85" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17" t="s">
+      <c r="D85" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F85" s="9" t="b">
@@ -5141,14 +5349,16 @@
       <c r="A86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="17" t="s">
+      <c r="D86" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F86" s="9" t="b">
@@ -5159,14 +5369,16 @@
       <c r="A87" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B87" s="18" t="s">
-        <v>212</v>
+      <c r="B87" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="17" t="s">
+      <c r="D87" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F87" s="9" t="b">
@@ -5180,11 +5392,13 @@
       <c r="B88" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="17" t="s">
+      <c r="C88" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F88" s="9" t="b">
@@ -5195,14 +5409,16 @@
       <c r="A89" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="17" t="s">
+      <c r="D89" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F89" s="9" t="b">
@@ -5213,14 +5429,16 @@
       <c r="A90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="17" t="s">
+      <c r="B90" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F90" s="9" t="b">
@@ -5234,11 +5452,13 @@
       <c r="B91" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="17" t="s">
+      <c r="C91" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F91" s="9" t="b">
@@ -5249,14 +5469,16 @@
       <c r="A92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17" t="s">
+      <c r="B92" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F92" s="9" t="b">
@@ -5267,14 +5489,16 @@
       <c r="A93" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17" t="s">
+      <c r="B93" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F93" s="9" t="b">
@@ -5282,7 +5506,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="20">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="18" t="s">
         <v>156</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -5291,25 +5515,29 @@
       <c r="C94" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17" t="s">
-        <v>231</v>
+      <c r="D94" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:6" ht="20">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17" t="s">
-        <v>229</v>
+      <c r="D95" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="F95" s="9"/>
     </row>
@@ -5317,15 +5545,17 @@
       <c r="A96" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="17" t="s">
-        <v>229</v>
+      <c r="D96" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="F96" s="9"/>
     </row>
@@ -5333,15 +5563,17 @@
       <c r="A97" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="17" t="s">
-        <v>231</v>
+      <c r="D97" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F97" s="9"/>
     </row>
@@ -5355,9 +5587,11 @@
       <c r="C98" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="17" t="s">
-        <v>231</v>
+      <c r="D98" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F98" s="9"/>
     </row>
@@ -5365,15 +5599,17 @@
       <c r="A99" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="17" t="s">
-        <v>229</v>
+      <c r="D99" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="F99" s="9"/>
     </row>
@@ -5381,15 +5617,17 @@
       <c r="A100" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>228</v>
+      <c r="B100" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="17" t="s">
-        <v>229</v>
+      <c r="D100" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="F100" s="9"/>
     </row>
